--- a/storage/app/public/files/imports/Categories.xlsx
+++ b/storage/app/public/files/imports/Categories.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27210"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3E3FAF0D-6F38-4198-BCC1-7912917F09D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2446CEDC-54CC-4E55-9D2A-7A21110E6B7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Alergi</t>
   </si>
@@ -49,6 +49,18 @@
   </si>
   <si>
     <t>Suplemen &amp; Vitamin.svg</t>
+  </si>
+  <si>
+    <t>Asma</t>
+  </si>
+  <si>
+    <t>Asma.svg</t>
+  </si>
+  <si>
+    <t>Batuk, Pilek, &amp; Flu</t>
+  </si>
+  <si>
+    <t>Batuk.svg</t>
   </si>
 </sst>
 </file>
@@ -400,10 +412,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="A4:B10"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -432,6 +444,22 @@
         <v>5</v>
       </c>
     </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
